--- a/dtpu_configurations/only_integer8/100mhz/mxu_16x16/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/100mhz/mxu_16x16/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>23.66353416442871</v>
+        <v>31.498119354248047</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.4540228843688965</v>
+        <v>6.448275566101074</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>16.819549560546875</v>
+        <v>22.15225601196289</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>100.0</v>
